--- a/src/test/resources/data/testdata.xlsx
+++ b/src/test/resources/data/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanmoy\eclipse-workspace2\SampleProject\src\test\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding\Test-Automation\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB54E87-C269-43CD-B642-65F890C222A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC52A6E-F5DB-4099-8122-0ECF8D25A619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="2" r:id="rId1"/>
@@ -34,10 +34,10 @@
     <t>DepartureDate</t>
   </si>
   <si>
-    <t>Jun 16 2021</t>
+    <t>Oct 23 2022</t>
   </si>
   <si>
-    <t>Review your booking</t>
+    <t>Complete your booking</t>
   </si>
 </sst>
 </file>
@@ -359,20 +359,20 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -387,20 +387,20 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>

--- a/src/test/resources/data/testdata.xlsx
+++ b/src/test/resources/data/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding\Test-Automation\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC52A6E-F5DB-4099-8122-0ECF8D25A619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C948A5-D830-43F7-8DF4-7B5427A11F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="2" r:id="rId1"/>
@@ -34,10 +34,10 @@
     <t>DepartureDate</t>
   </si>
   <si>
-    <t>Oct 23 2022</t>
+    <t>Complete your booking</t>
   </si>
   <si>
-    <t>Complete your booking</t>
+    <t>Nov 10 2022</t>
   </si>
 </sst>
 </file>
@@ -358,7 +358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D915B1EC-C6D2-4960-AEB3-C6F39CE14272}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -374,7 +374,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -386,7 +386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -402,7 +402,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
